--- a/MarsFramework/ExcelReaderDetails.xlsx
+++ b/MarsFramework/ExcelReaderDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya\source\IC\MarsFramework\MarsFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA0031-DB76-4F72-8DEF-CC59262D4D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104D40D8-BDCC-447A-BB7C-72C883A85950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9E03B50D-CD91-4174-909C-87804C599D49}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Title</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Date </t>
   </si>
   <si>
     <t>Start time</t>
@@ -168,25 +165,31 @@
     <t>Days</t>
   </si>
   <si>
-    <t>05/02/2022</t>
-  </si>
-  <si>
-    <t>05/23/2022</t>
-  </si>
-  <si>
-    <t>05/16/2022</t>
-  </si>
-  <si>
-    <t>05/30/2022</t>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>06/05/2022</t>
+  </si>
+  <si>
+    <t>07/05/2022</t>
+  </si>
+  <si>
+    <t>08/05/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -259,7 +262,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -603,27 +605,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -643,7 +645,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,11 +657,10 @@
     <col min="5" max="5" width="21.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="21" style="3" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="54" style="3" customWidth="1"/>
@@ -692,128 +693,128 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
